--- a/A-开发相关文档素材/3.测试用例/参与人/删除群组 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/删除群组 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>用例接口</t>
   </si>
@@ -104,6 +104,36 @@
   </si>
   <si>
     <t>不传groupId参数项，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>int类型传入极端值</t>
+  </si>
+  <si>
+    <t>userId为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误:请求参数错误，请检查后重新输入后台抛错:请求参数错误，请检查后重新输入</t>
+  </si>
+  <si>
+    <t>userId为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>groupId为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>groupId为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>入参类型异常</t>
+  </si>
+  <si>
+    <t>传入不同的参数类型</t>
+  </si>
+  <si>
+    <t>userId不传入int类型，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>groupId不传入int类型，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>入参项目异常</t>
@@ -231,7 +261,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,133 +382,27 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -407,187 +437,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,20 +722,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,22 +763,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,24 +794,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +837,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -978,15 +1008,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
@@ -1451,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1543,13 +1573,13 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
@@ -1562,15 +1592,15 @@
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
@@ -1583,15 +1613,15 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3"/>
@@ -1604,17 +1634,17 @@
       <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
@@ -1627,15 +1657,15 @@
       <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="3"/>
@@ -1650,13 +1680,13 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
@@ -1665,49 +1695,43 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="22" customHeight="1" spans="1:11">
-      <c r="A10" s="14">
+    <row r="10" ht="26" customHeight="1" spans="1:11">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:11">
+      <c r="F10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="26" customHeight="1" spans="1:11">
       <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>30</v>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1715,22 +1739,20 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="27" customHeight="1" spans="1:11">
+    <row r="12" ht="26" customHeight="1" spans="1:11">
       <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>37</v>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1738,20 +1760,163 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
+    <row r="13" ht="26" customHeight="1" spans="1:11">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:11">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="26" customHeight="1" spans="1:11">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="22" customHeight="1" spans="1:11">
+      <c r="A16" s="11">
+        <v>13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:11">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:11">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9 G10:G13 G14:G15">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -1773,7 +1938,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1781,10 +1946,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1792,15 +1957,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1830,31 +1995,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9">
